--- a/data/income_statement/2digits/size/26_IS_LARGE.xlsx
+++ b/data/income_statement/2digits/size/26_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>26-Manufacture of computer, electronic and optical products</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>26-Manufacture of computer, electronic and optical products</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,524 +841,594 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>5783189.88923</v>
+        <v>5709514.10566</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>6052298.50699</v>
+        <v>6002957.17154</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>8173030.89744</v>
+        <v>8109633.356140001</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>9306686.792299999</v>
+        <v>9256047.351910001</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>9631907.37122</v>
+        <v>9511564.420349998</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>11555349.38852</v>
+        <v>11460921.84766</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>7394417.38294</v>
+        <v>13651243.04696</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>15485293.83532</v>
+        <v>15333841.63779</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>19191314.4867</v>
+        <v>18898372.07226</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>25383888.4323</v>
+        <v>24997086.80826</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>32908485.94768</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>32301106.67568</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>39064260.408</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>2602493.00447</v>
+        <v>2561958.51362</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>2869208.14587</v>
+        <v>2839106.37077</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>3758604.353310001</v>
+        <v>3703058.79023</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>4387999.01626</v>
+        <v>4356663.854180001</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>4726905.46398</v>
+        <v>4632087.5733</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>5205085.817839999</v>
+        <v>5121488.4105</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>5069371.01851</v>
+        <v>6834155.20277</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>9482112.0426</v>
+        <v>9381672.684719998</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>12404956.15905</v>
+        <v>12193140.91346</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>15809915.25774</v>
+        <v>15450377.76567</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>21770537.11695</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>21174300.09043</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>27208514.413</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>3098468.47339</v>
+        <v>3071135.64435</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>3123071.60471</v>
+        <v>3106651.29236</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>4366491.253659999</v>
+        <v>4359319.63899</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>4869838.57942</v>
+        <v>4851062.77517</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>4852745.88998</v>
+        <v>4831302.105269999</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>6289667.209869999</v>
+        <v>6283849.35208</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>2268035.8908</v>
+        <v>6744373.26436</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>5905223.984399999</v>
+        <v>5871071.024389999</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>6694467.045910001</v>
+        <v>6628937.36883</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>9484928.811310001</v>
+        <v>9461487.746069999</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>10970151.00571</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>10962487.03657</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>11745200.527</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>82228.41137</v>
+        <v>76419.94769</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>60018.75641</v>
+        <v>57199.50840999999</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>47935.29047</v>
+        <v>47254.92691999999</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>48849.19662</v>
+        <v>48320.72255999999</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>52256.01725999999</v>
+        <v>48174.74178</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>60596.36081000001</v>
+        <v>55584.08508</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>57010.47363</v>
+        <v>72714.57983</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>97957.80832</v>
+        <v>81097.92868</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>91891.28173999999</v>
+        <v>76293.78997</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>89044.36324999999</v>
+        <v>85221.29652</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>167797.82502</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>164319.54868</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>110545.468</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>80380.06303</v>
+        <v>77797.82674</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>97924.42166000001</v>
+        <v>95046.16957</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>145324.46166</v>
+        <v>144897.89784</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>210294.71468</v>
+        <v>210093.97836</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>245846.62389</v>
+        <v>242657.23608</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>310529.60089</v>
+        <v>309234.21491</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>353401.1432999999</v>
+        <v>433829.35946</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>433711.53539</v>
+        <v>431380.75497</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>688296.2389699998</v>
+        <v>666166.5974099999</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>991645.0477100001</v>
+        <v>952239.9374900002</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>1322863.23896</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1107998.24892</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>1073976.404</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>42038.57997</v>
+        <v>40917.45128</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>26722.20047</v>
+        <v>26694.70907</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>39101.63321</v>
+        <v>38718.11627000001</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>70083.06015999999</v>
+        <v>69901.31024999999</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>89745.41952999998</v>
+        <v>86950.89382000001</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>95510.96898999999</v>
+        <v>94340.00170000002</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>135515.71869</v>
+        <v>172490.3095</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>134874.90184</v>
+        <v>132906.65879</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>173418.60947</v>
+        <v>152616.07719</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>392386.4247</v>
+        <v>356927.4440000001</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>929409.5840700001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>859453.5861300001</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>443135.602</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>32876.13427</v>
+        <v>32673.5823</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>63141.41774</v>
+        <v>63126.16653999999</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>103397.27994</v>
+        <v>103371.55156</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>123530.46744</v>
+        <v>123528.29266</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>134065.65618</v>
+        <v>133689.85554</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>195814.65253</v>
+        <v>195697.71235</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>198950.39281</v>
+        <v>242405.91548</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>269805.7390999999</v>
+        <v>269443.20173</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>459048.09997</v>
+        <v>458345.59645</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>554177.09208</v>
+        <v>550400.1707</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>336886.37061</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>191997.48896</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>568709.397</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>5465.34879</v>
+        <v>4206.79316</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>8060.80345</v>
+        <v>5225.29396</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>2825.54851</v>
+        <v>2808.23001</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>16681.18708</v>
+        <v>16664.37545</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>22035.54817999999</v>
+        <v>22016.48671999999</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>19203.97937</v>
+        <v>19196.50086</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>18935.0318</v>
+        <v>18933.13448</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>29030.89445</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>55829.52953</v>
+        <v>55204.92377</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>45081.53092999999</v>
+        <v>44912.32278999999</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>56567.28428</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>56547.17383</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>62131.405</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>5702809.8262</v>
+        <v>5631716.278920001</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>5954374.08533</v>
+        <v>5907911.001970001</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>8027706.435780001</v>
+        <v>7964735.4583</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>9096392.077620002</v>
+        <v>9045953.373550002</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>9386060.747330001</v>
+        <v>9268907.18427</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>11244819.78763</v>
+        <v>11151687.63275</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>7041016.23964</v>
+        <v>13217413.6875</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>15051582.29993</v>
+        <v>14902460.88282</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>18503018.24773</v>
+        <v>18232205.47485</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>24392243.38459</v>
+        <v>24044846.87077</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>31585622.70872</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>31193108.42676001</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>37990284.004</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>4512059.31675</v>
+        <v>4446453.686070001</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>5000353.32488</v>
+        <v>4954718.0435</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>6516173.846039999</v>
+        <v>6466179.482830001</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>7729399.65926</v>
+        <v>7689116.8772</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>7617004.39608</v>
+        <v>7530416.994039998</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>9164095.8256</v>
+        <v>9100144.21659</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>5537194.856939999</v>
+        <v>10436608.30882</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>11593465.05069</v>
+        <v>11490400.81288</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>14368106.08507</v>
+        <v>14179683.47929</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>16962980.2344</v>
+        <v>16653863.67644</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>22265563.44034</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>22003902.59454</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>25893376.632</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>3614696.41522</v>
+        <v>3591789.295429999</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>4048317.05974</v>
+        <v>4024677.1472</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>5377121.698030001</v>
+        <v>5349174.023650001</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>6439938.57369</v>
+        <v>6424706.043769999</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>6111117.8592</v>
+        <v>6071400.85486</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>7711931.93125</v>
+        <v>7686375.33965</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>4435774.94703</v>
+        <v>9051861.490549998</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>9770444.60582</v>
+        <v>9709747.954220001</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>12079077.55741</v>
+        <v>11944769.35017</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>14414478.98264</v>
+        <v>14201991.63922</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>18890584.98312</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>18702241.50062</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>20871391.885</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>473822.56397</v>
+        <v>470029.2363</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>470383.8012300001</v>
+        <v>468453.19687</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>506967.0216100001</v>
+        <v>506955.42935</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>515463.04443</v>
+        <v>515439.1644199999</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>508837.88791</v>
+        <v>486288.303</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>615031.30675</v>
+        <v>612356.91489</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>581515.31641</v>
+        <v>580062.0141800001</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>597029.3161700001</v>
+        <v>582470.8548</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>674058.7244900001</v>
+        <v>635867.63072</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>619612.27948</v>
+        <v>569405.4904000001</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>815489.92232</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>797583.76372</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1655604.703</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>256366.07659</v>
+        <v>239753.84941</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>318641.7304</v>
+        <v>298576.96592</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>440900.1219</v>
+        <v>418865.0253299999</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>532695.18376</v>
+        <v>507668.81163</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>746693.7729</v>
+        <v>723456.8346000002</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>555587.21207</v>
+        <v>522726.52396</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>450170.0735300001</v>
+        <v>588353.54978</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>846815.0194700001</v>
+        <v>819005.8946299999</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>1064775.77922</v>
+        <v>1049149.15092</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1388309.43793</v>
+        <v>1341887.01247</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1763996.87975</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1715029.50959</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>2382991.907</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>167174.26097</v>
+        <v>144881.30493</v>
       </c>
       <c r="D18" s="48" t="n">
         <v>163010.73351</v>
@@ -1469,331 +1440,371 @@
         <v>241302.85738</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>250354.87607</v>
+        <v>249271.00158</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>281545.37553</v>
+        <v>278685.43809</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>69734.51996999999</v>
+        <v>216331.25431</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>379176.1092299999</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>550194.0239499999</v>
+        <v>549897.34748</v>
       </c>
       <c r="L18" s="48" t="n">
         <v>540579.53435</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>795491.6551500001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>789047.8206100001</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>983388.137</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>1190750.50945</v>
+        <v>1185262.59285</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>954020.7604499999</v>
+        <v>953192.9584700001</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>1511532.58974</v>
+        <v>1498555.97547</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1366992.41836</v>
+        <v>1356836.49635</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1769056.35125</v>
+        <v>1738490.19023</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>2080723.96203</v>
+        <v>2051543.41616</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1503821.3827</v>
+        <v>2780805.37868</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>3458117.24924</v>
+        <v>3412060.06994</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>4134912.16266</v>
+        <v>4052521.99556</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>7429263.150189999</v>
+        <v>7390983.19433</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>9320059.268380001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>9189205.832220001</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>12096907.372</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>487554.10545</v>
+        <v>475520.18565</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>521168.45066</v>
+        <v>514183.9204400001</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>760775.77407</v>
+        <v>744772.0054799999</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>830087.1964199999</v>
+        <v>818240.0349499999</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>859561.5719199999</v>
+        <v>838471.71744</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1078462.55023</v>
+        <v>1060545.04942</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>676128.6204599999</v>
+        <v>1223624.19537</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1486046.98192</v>
+        <v>1454684.48839</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>1839126.62878</v>
+        <v>1785053.59557</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>2113072.84968</v>
+        <v>2086578.27108</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>2734511.0851</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2636174.92765</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>3559110.471</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>81116.70466999999</v>
+        <v>80894.80803999999</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>101111.27188</v>
+        <v>101106.93345</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>131450.06828</v>
+        <v>130594.2853</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>174013.57527</v>
+        <v>173667.97708</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>202556.47701</v>
+        <v>200933.78515</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>226006.48308</v>
+        <v>225196.14274</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>121536.07278</v>
+        <v>262660.46339</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>312402.17445</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>384112.07349</v>
+        <v>382040.9868</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>437980.62699</v>
+        <v>435576.1811</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>554307.44461</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>546086.2749</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>718241.63</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>224322.6027</v>
+        <v>221026.95331</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>228295.58208</v>
+        <v>227177.57039</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>321220.52831</v>
+        <v>317458.28838</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>354187.48473</v>
+        <v>351140.8714600001</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>354652.98991</v>
+        <v>350110.10006</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>457068.52279</v>
+        <v>453516.78786</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>285486.0084</v>
+        <v>519426.1839299999</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>653979.69394</v>
+        <v>646502.2612900001</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>785799.11537</v>
+        <v>773825.63188</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>982925.3795800001</v>
+        <v>974942.38645</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>1300304.26983</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1249386.79775</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>1772149.72</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>182114.79808</v>
+        <v>173598.4243</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>191761.5967</v>
+        <v>185899.4166</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>308105.17748</v>
+        <v>296719.4318</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>301886.1364199999</v>
+        <v>293431.18641</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>302352.105</v>
+        <v>287427.8322299999</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>395387.54436</v>
+        <v>381832.11882</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>269106.53928</v>
+        <v>441537.54805</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>519665.11353</v>
+        <v>495780.05265</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>669215.43992</v>
+        <v>629186.9768899999</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>692166.84311</v>
+        <v>676059.7035299999</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>879899.37066</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>840701.855</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1068719.121</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>703196.4040000001</v>
+        <v>709742.4072</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>432852.30979</v>
+        <v>439009.03803</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>750756.8156699999</v>
+        <v>753783.96999</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>536905.22194</v>
+        <v>538596.4614</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>909494.77933</v>
+        <v>900018.4727899999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>1002261.4118</v>
+        <v>990998.3667400001</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>827692.76224</v>
+        <v>1557181.18331</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>1972070.26732</v>
+        <v>1957375.58155</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>2295785.53388</v>
+        <v>2267468.39999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>5316190.30051</v>
+        <v>5304404.92325</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>6585548.18328</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>6553030.904569999</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>8537796.901000001</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>712665.52626</v>
+        <v>701707.82442</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>1069920.90314</v>
+        <v>1053109.44562</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>1483048.05584</v>
+        <v>1469839.96791</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>1351233.75826</v>
+        <v>1314272.81452</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>938900.38512</v>
+        <v>910184.6722</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>1489448.26197</v>
+        <v>1465613.66114</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>1067745.40256</v>
+        <v>2103675.55487</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>2067614.53692</v>
+        <v>2020380.92505</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>4762074.74853</v>
+        <v>4728864.35049</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>13936981.1094</v>
+        <v>13707254.26593</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>7769393.194590001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>7717899.97941</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>13544696.264</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>17118.80382</v>
+        <v>17112.03773</v>
       </c>
       <c r="D26" s="48" t="n">
         <v>11419.01333</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>10346.66155</v>
+        <v>8226.661550000001</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>7332.331230000001</v>
+        <v>6142.331230000001</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>20796.30721</v>
+        <v>20795.93093</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>6496.89489</v>
+        <v>3016.89489</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>443.53417</v>
+        <v>481.03417</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>22162.96545</v>
+        <v>12951.03842</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>38828.00331</v>
+        <v>36367.80533</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>74059.17970000001</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>124410.46146</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>182002.156</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>15124.44323</v>
@@ -1826,7 +1842,7 @@
         <v>23371.50722</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>0</v>
+        <v>99187.68823999999</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>134008.16685</v>
@@ -1840,50 +1856,60 @@
       <c r="M27" s="48" t="n">
         <v>569939.9820799999</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>137503.013</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>36223.31738</v>
+        <v>35405.23839</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>67890.92853999999</v>
+        <v>66007.95163</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>74933.05722999999</v>
+        <v>74084.46547</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>101456.86229</v>
+        <v>100697.02678</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>64016.10316</v>
+        <v>63395.56335</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>61308.69397000001</v>
+        <v>60520.86992</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>29474.52047</v>
+        <v>69931.56705000001</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>132130.16064</v>
+        <v>130630.20932</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>233000.48044</v>
+        <v>228442.91796</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>824742.99978</v>
+        <v>808711.02244</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>554152.19309</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>534134.1946899999</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>402963.132</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0.55</v>
@@ -1904,64 +1930,74 @@
         <v>683.5432</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>0</v>
+        <v>1460.54841</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>1307.37</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>2878.55828</v>
+        <v>1149.53911</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>1387.87294</v>
+        <v>1386.5795</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>414.60857</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>412.43907</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>27.633</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>7147.278929999999</v>
+        <v>5952.59717</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>3068.499690000001</v>
+        <v>1835.74481</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>3362.30879</v>
+        <v>2162.72037</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>33313.45899</v>
+        <v>32118.77723</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>3062.16</v>
+        <v>1867.47824</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>3019.97346</v>
+        <v>1825.2917</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>2800.03796</v>
+        <v>2800.037960000001</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>5991.93358</v>
+        <v>4797.251059999999</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>5695.743820000001</v>
+        <v>4443.416340000001</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>29664.01652</v>
+        <v>29366.41652</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>14328.66421</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>13963.86355</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>78581.569</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>30994.62764</v>
@@ -1979,16 +2015,16 @@
         <v>318.79865</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>56.87937</v>
+        <v>56.87937000000001</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>146216.33967</v>
+        <v>148256.94507</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>132.86643</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>5893.65607</v>
+        <v>5787.98379</v>
       </c>
       <c r="L31" s="48" t="n">
         <v>0</v>
@@ -1996,50 +2032,60 @@
       <c r="M31" s="48" t="n">
         <v>67.42064999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>249317.737</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>564082.63758</v>
+        <v>556624.56573</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>765918.2367499999</v>
+        <v>752826.33071</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>910488.0391700001</v>
+        <v>902064.6183499999</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>709825.5767100001</v>
+        <v>679530.1383700001</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>738102.7904599999</v>
+        <v>714903.879</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1194317.61619</v>
+        <v>1181906.05523</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>853873.55019</v>
+        <v>1444689.55734</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>1405858.50188</v>
+        <v>1370815.14241</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>3865021.33041</v>
+        <v>3843022.83385</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>11057407.7408</v>
+        <v>10845939.50373</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>6155392.60171</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>6128930.447329999</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>12221488.25</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>178.58826</v>
@@ -2054,10 +2100,10 @@
         <v>203.0551</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>2618.57688</v>
+        <v>50.64256</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>6810.22504</v>
+        <v>961.4593299999999</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>4463.31727</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>2135.11397</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>2022.131</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,89 +2164,104 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>41795.27941999999</v>
+        <v>40315.17627</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>127346.94235</v>
+        <v>126743.12266</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>465924.3481</v>
+        <v>465307.86117</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>483896.88104</v>
+        <v>480375.89291</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>109938.09837</v>
+        <v>108804.82908</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>193382.92863</v>
+        <v>193271.16028</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>30474.10283000001</v>
+        <v>332404.85936</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>362207.49275</v>
+        <v>361923.80122</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>435349.77738</v>
+        <v>434242.65529</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>1712758.83966</v>
+        <v>1710831.10404</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>348552.1488499999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>343906.05661</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>270790.643</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>524039.00728</v>
+        <v>488722.82737</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>594285.07157</v>
+        <v>580306.0557799999</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>1383337.62354</v>
+        <v>1357543.76984</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>997656.9328000001</v>
+        <v>983921.5419600002</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>1095965.03137</v>
+        <v>1058867.99292</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>1345502.48009</v>
+        <v>1333609.54496</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>1306704.87459</v>
+        <v>1955548.53265</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>2051512.54118</v>
+        <v>2016969.55841</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>4313983.8668</v>
+        <v>4291522.84022</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>13056124.41491</v>
+        <v>12819609.06078</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>7009849.66951</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>6963710.562609999</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>12833016.714</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>30.8209</v>
@@ -2210,31 +2276,36 @@
         <v>233.72002</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>260.10603</v>
+        <v>256.97103</v>
       </c>
       <c r="H37" s="48" t="n">
         <v>68.46526</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>976.2967300000001</v>
+        <v>984.7081000000001</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>150.32836</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>2502.87757</v>
+        <v>2189.32984</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>5434.726379999999</v>
+        <v>4600.62382</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>19749.04623</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>19383.44986</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>49448.921</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>21053.683</v>
@@ -2243,7 +2314,7 @@
         <v>17878.08991</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>78250.28258</v>
+        <v>78080.96624999998</v>
       </c>
       <c r="F38" s="48" t="n">
         <v>36500.95653</v>
@@ -2252,7 +2323,7 @@
         <v>31573.19487</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>36970.31271</v>
+        <v>36970.31270999999</v>
       </c>
       <c r="I38" s="48" t="n">
         <v>62502.52583</v>
@@ -2261,31 +2332,36 @@
         <v>65227.9176</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>83910.79417000001</v>
+        <v>83312.86743999999</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>103223.72427</v>
+        <v>89400.55389000001</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>199006.01012</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>193013.87367</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>284316.509</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>3963.273</v>
+        <v>1151.52</v>
       </c>
       <c r="E39" s="48" t="n">
         <v>6164.039319999999</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>4660.51183</v>
+        <v>2778.21771</v>
       </c>
       <c r="G39" s="48" t="n">
         <v>8231.568070000001</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>473558.8630599999</v>
+        <v>466790.9128</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>522757.64669</v>
+        <v>513036.04346</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>872360.5959600001</v>
+        <v>850254.61002</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>537735.57833</v>
+        <v>530986.74803</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>962443.7313599999</v>
+        <v>932658.76348</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>1108949.25058</v>
+        <v>1102411.83729</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1235911.8596</v>
+        <v>1711911.01175</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>1774069.65565</v>
+        <v>1739526.67288</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>3874034.92914</v>
+        <v>3852617.93767</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>12036766.05705</v>
+        <v>11816475.21423</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>6323432.347060001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>6284380.061120001</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>12391896.541</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>182.69985</v>
@@ -2366,10 +2452,10 @@
         <v>216.32103</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>4542.61844</v>
+        <v>251.81183</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>6317.88889</v>
+        <v>987.16791</v>
       </c>
       <c r="I41" s="48" t="n">
         <v>4373.717189999999</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>1692.57766</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>2886.725</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2423,136 +2514,156 @@
         <v>0</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>0.8502799999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>29212.94047</v>
+        <v>664.71082</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>47177.92042</v>
+        <v>45732.26086</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>423393.34253</v>
+        <v>419874.7911</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>418309.84506</v>
+        <v>413205.57864</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>88913.81259999999</v>
+        <v>85895.68363999999</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>193196.56265</v>
+        <v>193171.76179</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>2940.47524</v>
+        <v>175776.56978</v>
       </c>
       <c r="J43" s="48" t="n">
         <v>209784.79726</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>351763.45449</v>
+        <v>351630.89384</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>907908.56228</v>
+        <v>906341.32391</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>465968.83816</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>465240.6003</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>104468.018</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>448790.97185</v>
+        <v>426806.0442</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>486173.67064</v>
+        <v>427166.75705</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>625912.19597</v>
+        <v>548789.49285</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>217104.03479</v>
+        <v>207130.10283</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>606104.68975</v>
+        <v>500862.38508</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>392944.61824</v>
+        <v>378404.94748</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>171198.51716</v>
+        <v>916252.8030599999</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>859351.8799200001</v>
+        <v>845002.92675</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>923680.1209699999</v>
+        <v>909163.7396699999</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>2659347.98211</v>
+        <v>2634220.76769</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>1730282.10718</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>1715733.26596</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>2160669.212</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>419119.18355</v>
+        <v>406885.13385</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>385186.6309</v>
+        <v>326260.47213</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>506366.84304</v>
+        <v>429244.1399199999</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>180600.31417</v>
+        <v>170626.38221</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>425839.58012</v>
+        <v>320599.91772</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>281550.58019</v>
+        <v>267010.90943</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>124251.42417</v>
+        <v>599944.45015</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>598150.18709</v>
+        <v>589269.78483</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>674246.7684399999</v>
+        <v>664135.3493199999</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>2173262.69543</v>
+        <v>2149444.50195</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>1549470.54866</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>1537466.40807</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>1843892.188</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>29671.7883</v>
+        <v>19920.91035</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>100987.03974</v>
+        <v>100906.28492</v>
       </c>
       <c r="E46" s="48" t="n">
         <v>119545.35293</v>
@@ -2561,112 +2672,127 @@
         <v>36503.72062000001</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>180265.10963</v>
+        <v>180262.46736</v>
       </c>
       <c r="H46" s="48" t="n">
         <v>111394.03805</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>46947.09299</v>
+        <v>316308.35291</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>261201.69283</v>
+        <v>255733.14192</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>249433.35253</v>
+        <v>245028.39035</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>486085.28668</v>
+        <v>484776.26574</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>180811.55852</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>178266.85789</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>316777.024</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>443031.95113</v>
+        <v>495921.36005</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>422314.47072</v>
+        <v>484645.67082</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>224555.052</v>
+        <v>317290.67521</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>673378.01261</v>
+        <v>661817.6311299999</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>146325.44333</v>
+        <v>250472.76699</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>753262.57544</v>
+        <v>744597.5354399999</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>417534.77305</v>
+        <v>789055.4024699999</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>1128820.38314</v>
+        <v>1115784.02144</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>1820196.29464</v>
+        <v>1795646.17059</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>3537699.01289</v>
+        <v>3557829.36071</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>5614809.601179999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>5591487.05541</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>7088807.239</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>15911.26331</v>
+        <v>8439.78774</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>15731.87094</v>
+        <v>14135.57959</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>28073.28843</v>
+        <v>27825.80105</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>103006.03695</v>
+        <v>100634.85797</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>31897.64665</v>
+        <v>29458.8635</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>26211.55541</v>
+        <v>24840.9049</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>62612.24997999999</v>
+        <v>80071.24645999999</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>54978.7133</v>
+        <v>54287.35712</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>73378.31065</v>
+        <v>70343.5184</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>153459.40906</v>
+        <v>146430.66611</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>110679.71534</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>103560.14292</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>257360.679</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>375.78176</v>
+        <v>310.82432</v>
       </c>
       <c r="D49" s="48" t="n">
         <v>401.05801</v>
@@ -2678,121 +2804,136 @@
         <v>695.3548300000001</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>271.12862</v>
+        <v>256.65999</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>2309.39622</v>
+        <v>2223.80026</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>1462.3488</v>
+        <v>2251.16284</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>3326.03936</v>
+        <v>3067.87489</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>3703.92817</v>
+        <v>3669.09124</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>165.7037</v>
+        <v>161.58908</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>399.53577</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>378.06836</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>37663.913</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>15535.48155</v>
+        <v>8128.96342</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>15330.81293</v>
+        <v>13734.52158</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>26876.47907</v>
+        <v>26628.99169</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>102310.68212</v>
+        <v>99939.50314</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>31626.51803000001</v>
+        <v>29202.20351</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>23902.15919</v>
+        <v>22617.10464</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>61149.90118</v>
+        <v>77820.08361999999</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>51652.67394000001</v>
+        <v>51219.48223</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>69674.38248</v>
+        <v>66674.42716000001</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>153293.70536</v>
+        <v>146269.07703</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>110280.17957</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>103182.07456</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>219696.766</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>36376.49032</v>
+        <v>19807.52224</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>26109.7985</v>
+        <v>22547.00595</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>110525.85393</v>
+        <v>109031.62253</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>41780.71528</v>
+        <v>37190.79926</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>76676.18384</v>
+        <v>74126.40793</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>95346.32831999999</v>
+        <v>90474.26905000002</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>42770.42522</v>
+        <v>103197.55865</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>154774.01408</v>
+        <v>151456.24152</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>107880.82322</v>
+        <v>106917.42644</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>360558.22659</v>
+        <v>350224.96582</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>242164.51045</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>239645.99685</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>456600.349</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>4435.602140000001</v>
+        <v>2979.88254</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>2107.62188</v>
+        <v>342.10327</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>2821.03962</v>
+        <v>1789.26094</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>3217.05182</v>
+        <v>2436.12214</v>
       </c>
       <c r="G52" s="48" t="n">
         <v>15600.69495</v>
@@ -2801,7 +2942,7 @@
         <v>26574.00239</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>7117.051030000001</v>
+        <v>30594.77861</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>29523.82805</v>
@@ -2810,208 +2951,236 @@
         <v>32889.20289</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>53134.35889999999</v>
+        <v>53134.3589</v>
       </c>
       <c r="M52" s="48" t="n">
         <v>44369.16346</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>131575.046</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>2784.15776</v>
+        <v>1373.42134</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>1960.10027</v>
+        <v>1896.73776</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>2046.71319</v>
+        <v>2046.63319</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>4848.48585</v>
+        <v>4848.485850000001</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>5410.01662</v>
+        <v>5186.10222</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>8040.94385</v>
+        <v>7870.93344</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>5821.919289999999</v>
+        <v>9446.39021</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>10220.68475</v>
+        <v>10150.75852</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>11579.2844</v>
+        <v>11552.61652</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>15352.15855</v>
+        <v>15206.1098</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>24565.36384</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>24369.46994</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>20289.181</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>29156.73042</v>
+        <v>15454.21836</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>22042.07635</v>
+        <v>20308.16492</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>105658.10112</v>
+        <v>105195.7284</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>33715.17761</v>
+        <v>29906.19127</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>55665.47227000001</v>
+        <v>53339.61076</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>60731.38208</v>
+        <v>56029.33322</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>29831.4549</v>
+        <v>63156.38983000001</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>115029.50128</v>
+        <v>111781.65495</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>63412.33592999999</v>
+        <v>62475.60702999999</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>292071.70914</v>
+        <v>281884.49712</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>173229.98315</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>170907.36345</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>304736.122</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>422566.72412</v>
+        <v>484553.62555</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>411936.54316</v>
+        <v>476234.24446</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>142102.4865</v>
+        <v>236084.85373</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>734603.33428</v>
+        <v>725261.68984</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>101546.90614</v>
+        <v>205805.22256</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>684127.80253</v>
+        <v>678964.1712900001</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>437376.59781</v>
+        <v>765929.09028</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>1029025.08236</v>
+        <v>1018615.13704</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>1785693.78207</v>
+        <v>1759072.26255</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>3330600.19536</v>
+        <v>3354035.061000001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>5483324.80607</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>5455401.201479999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>6889567.569</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>18786.76279</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>18491.17974</v>
+        <v>18186.82309</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>21846.02438</v>
+        <v>21522.30186</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>18736.41502</v>
+        <v>17800.09516</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>21327.4341</v>
+        <v>20707.64148</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>29190.57244</v>
+        <v>26834.81587</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>35897.40313</v>
+        <v>46740.81498</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>47440.45821</v>
+        <v>44355.00266000001</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>60032.2905</v>
+        <v>57005.30495000001</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>79879.19993999999</v>
+        <v>78036.06050000001</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>100623.15158</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>92571.09248000001</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>140539.256</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>403779.96133</v>
+        <v>465766.8627599999</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>393445.36342</v>
+        <v>458047.4213700001</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>120256.46212</v>
+        <v>214562.55187</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>715866.91926</v>
+        <v>707461.59468</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>80219.47204000001</v>
+        <v>185097.58108</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>654937.23009</v>
+        <v>652129.35542</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>401479.19468</v>
+        <v>719188.2753</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>981584.6241499998</v>
+        <v>974260.1343799998</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>1725661.49157</v>
+        <v>1702066.9576</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>3250720.99542</v>
+        <v>3275999.0005</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>5382701.65449</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>5362830.109</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>6749028.313</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D59" s="35" t="n">
+        <v>24</v>
+      </c>
+      <c r="E59" s="35" t="n">
+        <v>26</v>
+      </c>
+      <c r="F59" s="35" t="n">
         <v>30</v>
       </c>
-      <c r="E59" s="35" t="n">
+      <c r="G59" s="35" t="n">
+        <v>22</v>
+      </c>
+      <c r="H59" s="35" t="n">
+        <v>24</v>
+      </c>
+      <c r="I59" s="35" t="n">
         <v>34</v>
       </c>
-      <c r="F59" s="35" t="n">
-        <v>38</v>
-      </c>
-      <c r="G59" s="35" t="n">
-        <v>29</v>
-      </c>
-      <c r="H59" s="35" t="n">
-        <v>29</v>
-      </c>
-      <c r="I59" s="35" t="n">
-        <v>36</v>
-      </c>
       <c r="J59" s="35" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>26</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>